--- a/Data/Students.xlsx
+++ b/Data/Students.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
